--- a/data_year/zb/科技/按活动类型分全国研究与试验发展经费支出.xlsx
+++ b/data_year/zb/科技/按活动类型分全国研究与试验发展经费支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE2"/>
+  <dimension ref="B1:BE1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,181 +715,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.08383</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.36807</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.63449</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.18259</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.11639</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.91083</v>
-      </c>
-      <c r="H2" t="n">
-        <v>157.51731</v>
-      </c>
-      <c r="I2" t="n">
-        <v>151.49009</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.28793</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.71062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13.45227</v>
-      </c>
-      <c r="M2" t="n">
-        <v>12.45372</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.11843</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41.47759</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3571.27946</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3527.68344</v>
-      </c>
-      <c r="R2" t="n">
-        <v>12.67047</v>
-      </c>
-      <c r="S2" t="n">
-        <v>41.69409</v>
-      </c>
-      <c r="T2" t="n">
-        <v>68.98192</v>
-      </c>
-      <c r="U2" t="n">
-        <v>14.61736</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.09898999999999999</v>
-      </c>
-      <c r="W2" t="n">
-        <v>13.0585</v>
-      </c>
-      <c r="X2" t="n">
-        <v>135.12399</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>121.9665</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>139.36938</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>239.75181</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>451.53541</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>72.41401999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.43401</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.51069</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.62705</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.68235</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.28792</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.99694</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.54645</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.26159</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.87451</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>34.15517</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>33.27776</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>114.51368</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>373.09958</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1138.69054</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>651.07728</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.02402</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1.69949</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>45.2081</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>43.48459</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.27765</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>10.59954</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>170.27666</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>159.39947</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.03922</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1.07799</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1.03867</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
